--- a/output/samchully_output__balance_sheet.xlsx
+++ b/output/samchully_output__balance_sheet.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e576ffdc03dfe1b2/Programming/Python/Investment_Assistant/combine_fs/Consolidated Table/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_20711D0C312E8412579E5AE395F4344354DA3CC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B57E276A-F062-4A0E-B842-5E3F75380D1A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
     <sheet name="log" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -258,163 +264,163 @@
     <t>부채및자본총계</t>
   </si>
   <si>
-    <t xml:space="preserve">　유동자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　현금및현금성자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매출채권</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타채권</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타금융자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　재고자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타유동자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　당기법인세자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매각예정자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　비유동자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　비유동매출채권</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　비유동기타채권</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　비유동기타금융자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　관계기업투자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유형자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　사용권자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　투자부동산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　무형자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　종업원급여자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　이연법인세자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　자산총계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　유동부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매입채무</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타채무</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　단기차입금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유동성장기부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유동성사채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타금융부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유동 리스부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타유동부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유동충당부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　당기법인세부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매각예정과관련된부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매각예정자산과 관련된 부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매각예정자산관련부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　비유동부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　장기차입금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　사채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동금융부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동금융부채2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타비유동부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　종업원급여부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　이연법인세부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　충당부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　부채총계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　지배기업지분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　자본금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타불입자본</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　이익잉여금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타자본구성요소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　비지배지분</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　자본총계</t>
+    <t>　유동자산</t>
+  </si>
+  <si>
+    <t>　　현금및현금성자산</t>
+  </si>
+  <si>
+    <t>　　매출채권</t>
+  </si>
+  <si>
+    <t>　　기타채권</t>
+  </si>
+  <si>
+    <t>　　기타금융자산</t>
+  </si>
+  <si>
+    <t>　　재고자산</t>
+  </si>
+  <si>
+    <t>　　기타유동자산</t>
+  </si>
+  <si>
+    <t>　　당기법인세자산</t>
+  </si>
+  <si>
+    <t>　　매각예정자산</t>
+  </si>
+  <si>
+    <t>　비유동자산</t>
+  </si>
+  <si>
+    <t>　　비유동매출채권</t>
+  </si>
+  <si>
+    <t>　　비유동기타채권</t>
+  </si>
+  <si>
+    <t>　　비유동기타금융자산</t>
+  </si>
+  <si>
+    <t>　　관계기업투자</t>
+  </si>
+  <si>
+    <t>　　유형자산</t>
+  </si>
+  <si>
+    <t>　　사용권자산</t>
+  </si>
+  <si>
+    <t>　　투자부동산</t>
+  </si>
+  <si>
+    <t>　　무형자산</t>
+  </si>
+  <si>
+    <t>　　기타비유동자산</t>
+  </si>
+  <si>
+    <t>　　종업원급여자산</t>
+  </si>
+  <si>
+    <t>　　이연법인세자산</t>
+  </si>
+  <si>
+    <t>　자산총계</t>
+  </si>
+  <si>
+    <t>　유동부채</t>
+  </si>
+  <si>
+    <t>　　매입채무</t>
+  </si>
+  <si>
+    <t>　　기타채무</t>
+  </si>
+  <si>
+    <t>　　단기차입금</t>
+  </si>
+  <si>
+    <t>　　유동성장기부채</t>
+  </si>
+  <si>
+    <t>　　유동성사채</t>
+  </si>
+  <si>
+    <t>　　기타금융부채</t>
+  </si>
+  <si>
+    <t>　　유동 리스부채</t>
+  </si>
+  <si>
+    <t>　　기타유동부채</t>
+  </si>
+  <si>
+    <t>　　유동충당부채</t>
+  </si>
+  <si>
+    <t>　　당기법인세부채</t>
+  </si>
+  <si>
+    <t>　　매각예정과관련된부채</t>
+  </si>
+  <si>
+    <t>　　매각예정자산과 관련된 부채</t>
+  </si>
+  <si>
+    <t>　　매각예정자산관련부채</t>
+  </si>
+  <si>
+    <t>　비유동부채</t>
+  </si>
+  <si>
+    <t>　　장기차입금</t>
+  </si>
+  <si>
+    <t>　　사채</t>
+  </si>
+  <si>
+    <t>　　기타비유동금융부채</t>
+  </si>
+  <si>
+    <t>　　기타비유동금융부채2</t>
+  </si>
+  <si>
+    <t>　　기타비유동부채</t>
+  </si>
+  <si>
+    <t>　　종업원급여부채</t>
+  </si>
+  <si>
+    <t>　　이연법인세부채</t>
+  </si>
+  <si>
+    <t>　　충당부채</t>
+  </si>
+  <si>
+    <t>　부채총계</t>
+  </si>
+  <si>
+    <t>　지배기업지분</t>
+  </si>
+  <si>
+    <t>　　자본금</t>
+  </si>
+  <si>
+    <t>　　기타불입자본</t>
+  </si>
+  <si>
+    <t>　　이익잉여금</t>
+  </si>
+  <si>
+    <t>　　기타자본구성요소</t>
+  </si>
+  <si>
+    <t>　비지배지분</t>
+  </si>
+  <si>
+    <t>　자본총계</t>
   </si>
   <si>
     <t>raw_name</t>
@@ -423,46 +429,46 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">　　매각예정부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　기타유동금융자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　매각예정비유동자산</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　유동성장기차입금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　비유동성사채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　순확정급여부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　이익잉여금(결손금)</t>
+    <t>　　매각예정부채</t>
+  </si>
+  <si>
+    <t>　　기타유동금융자산</t>
+  </si>
+  <si>
+    <t>　　매각예정비유동자산</t>
+  </si>
+  <si>
+    <t>　　유동성장기차입금</t>
+  </si>
+  <si>
+    <t>　　비유동성사채</t>
+  </si>
+  <si>
+    <t>　　순확정급여부채</t>
+  </si>
+  <si>
+    <t>　　이익잉여금(결손금)</t>
   </si>
   <si>
     <t>자본과부채총계</t>
   </si>
   <si>
-    <t xml:space="preserve">　　기타유동금융부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　비유동기타금융부채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　자본금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　기타불입자본</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　이익잉여금</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　기타자본구성요소</t>
+    <t>　　기타유동금융부채</t>
+  </si>
+  <si>
+    <t>　　비유동기타금융부채</t>
+  </si>
+  <si>
+    <t>　자본금</t>
+  </si>
+  <si>
+    <t>　기타불입자본</t>
+  </si>
+  <si>
+    <t>　이익잉여금</t>
+  </si>
+  <si>
+    <t>　기타자본구성요소</t>
   </si>
   <si>
     <t>2021</t>
@@ -618,8 +624,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,13 +688,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,7 +740,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -760,6 +774,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -794,9 +809,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,14 +985,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1152,7 @@
         <v>1489808098529</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1202,7 @@
         <v>252675462103</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1252,7 @@
         <v>323493813912</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1302,7 @@
         <v>98558788493</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1352,7 @@
         <v>718115656361</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1402,7 @@
         <v>69743777232</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1452,7 @@
         <v>26965518189</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1502,7 @@
         <v>255082239</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1523,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1599,7 @@
         <v>2693275133039</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +1649,7 @@
         <v>2712325874</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1673,7 +1699,7 @@
         <v>8598431694</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1749,7 @@
         <v>50404490556</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1799,7 @@
         <v>74038331505</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1849,7 @@
         <v>2250269156690</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +1899,7 @@
         <v>129680388445</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1923,7 +1949,7 @@
         <v>107972420187</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1973,7 +1999,7 @@
         <v>23774546587</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +2049,7 @@
         <v>9955174934</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2073,7 +2099,7 @@
         <v>17107584741</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2123,7 +2149,7 @@
         <v>18762281826</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2199,7 @@
         <v>4183083231568</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2223,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2299,7 @@
         <v>921779250792</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2349,7 @@
         <v>435678265504</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +2399,7 @@
         <v>38937084995</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2423,7 +2449,7 @@
         <v>99821294336</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2499,7 @@
         <v>132255435373</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2523,7 +2549,7 @@
         <v>32434141037</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2599,7 @@
         <v>99945217591</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2649,7 @@
         <v>33190136682</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2643,7 +2669,7 @@
         <v>17142531849</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2689,7 @@
         <v>16047604833</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2713,7 +2739,7 @@
         <v>146511425091</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2763,7 +2789,7 @@
         <v>3990659085</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2813,7 +2839,7 @@
         <v>31271026471</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2860,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2907,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2954,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3030,7 @@
         <v>1584837968248</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3080,7 @@
         <v>230538674192</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3104,7 +3130,7 @@
         <v>618807328230</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3154,7 +3180,7 @@
         <v>63716267549</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -3174,7 +3200,7 @@
         <v>63586935131</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -3194,7 +3220,7 @@
         <v>129332418</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3270,7 @@
         <v>574947420860</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -3294,7 +3320,7 @@
         <v>6173065702</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3344,7 +3370,7 @@
         <v>88436830014</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3394,7 +3420,7 @@
         <v>2218381701</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -3444,7 +3470,7 @@
         <v>2506617219040</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -3494,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -3544,7 +3570,7 @@
         <v>1523755242155</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -3594,7 +3620,7 @@
         <v>20275125000</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -3644,7 +3670,7 @@
         <v>-40258397513</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3694,7 +3720,7 @@
         <v>1532140345058</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -3744,7 +3770,7 @@
         <v>11598169610</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3820,7 @@
         <v>152710770373</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -3844,7 +3870,7 @@
         <v>1676466012528</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -3900,14 +3926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C508"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -3918,7 +3944,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3929,7 +3955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3940,7 +3966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -3951,7 +3977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -3962,7 +3988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -3973,7 +3999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -3984,7 +4010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3995,7 +4021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -4006,7 +4032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -4017,7 +4043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -4028,7 +4054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4050,7 +4076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -4061,7 +4087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4072,7 +4098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -4083,7 +4109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -4094,7 +4120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -4105,7 +4131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -4116,7 +4142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -4127,7 +4153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -4138,7 +4164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -4149,7 +4175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -4160,7 +4186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -4171,7 +4197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -4182,7 +4208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -4193,7 +4219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -4204,7 +4230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -4215,7 +4241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -4226,7 +4252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -4237,7 +4263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -4248,7 +4274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -4259,7 +4285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -4270,7 +4296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -4281,7 +4307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -4292,7 +4318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -4303,7 +4329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -4314,7 +4340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -4325,7 +4351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -4336,7 +4362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -4347,7 +4373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -4358,7 +4384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -4369,7 +4395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -4380,7 +4406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -4391,7 +4417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -4402,7 +4428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4413,7 +4439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -4424,7 +4450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -4435,7 +4461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -4446,7 +4472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -4457,7 +4483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -4468,7 +4494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -4479,7 +4505,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -4490,7 +4516,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -4501,7 +4527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -4512,7 +4538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -4523,7 +4549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -4534,7 +4560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4545,7 +4571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -4556,7 +4582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -4567,7 +4593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -4578,7 +4604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -4589,7 +4615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -4600,7 +4626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4611,7 +4637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -4622,7 +4648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -4633,7 +4659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -4644,7 +4670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -4655,7 +4681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -4666,7 +4692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -4677,7 +4703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -4688,7 +4714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -4699,7 +4725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -4710,7 +4736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -4721,7 +4747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -4732,7 +4758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -4743,7 +4769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -4754,7 +4780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -4765,7 +4791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -4776,7 +4802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -4787,7 +4813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -4798,7 +4824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -4809,7 +4835,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -4820,7 +4846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -4831,7 +4857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -4842,7 +4868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -4853,7 +4879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -4864,7 +4890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -4875,7 +4901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -4886,7 +4912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -4897,7 +4923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -4908,7 +4934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -4919,7 +4945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -4930,7 +4956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -4941,7 +4967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -4952,7 +4978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -4963,7 +4989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -4974,7 +5000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -4985,7 +5011,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -4996,7 +5022,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -5007,7 +5033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -5018,7 +5044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -5029,7 +5055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -5040,7 +5066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -5051,7 +5077,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -5062,7 +5088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -5073,7 +5099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -5084,7 +5110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5095,7 +5121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>80</v>
       </c>
@@ -5106,7 +5132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -5117,7 +5143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -5128,7 +5154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -5139,7 +5165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>84</v>
       </c>
@@ -5150,7 +5176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -5161,7 +5187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -5172,7 +5198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -5183,7 +5209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -5194,7 +5220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>89</v>
       </c>
@@ -5205,7 +5231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>90</v>
       </c>
@@ -5216,7 +5242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -5227,7 +5253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -5238,7 +5264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -5249,7 +5275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>94</v>
       </c>
@@ -5260,7 +5286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -5271,7 +5297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -5282,7 +5308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -5293,7 +5319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -5304,7 +5330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>100</v>
       </c>
@@ -5315,7 +5341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>101</v>
       </c>
@@ -5326,7 +5352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -5337,7 +5363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>102</v>
       </c>
@@ -5348,7 +5374,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -5359,7 +5385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>104</v>
       </c>
@@ -5370,7 +5396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>105</v>
       </c>
@@ -5381,7 +5407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>106</v>
       </c>
@@ -5392,7 +5418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>107</v>
       </c>
@@ -5403,7 +5429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -5414,7 +5440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -5425,7 +5451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>111</v>
       </c>
@@ -5436,7 +5462,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -5447,7 +5473,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>114</v>
       </c>
@@ -5458,7 +5484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>116</v>
       </c>
@@ -5469,7 +5495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>117</v>
       </c>
@@ -5480,7 +5506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -5491,7 +5517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>119</v>
       </c>
@@ -5502,7 +5528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>121</v>
       </c>
@@ -5513,7 +5539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>122</v>
       </c>
@@ -5524,7 +5550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -5535,7 +5561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>124</v>
       </c>
@@ -5546,7 +5572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>125</v>
       </c>
@@ -5557,7 +5583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>71</v>
       </c>
@@ -5568,7 +5594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>126</v>
       </c>
@@ -5579,7 +5605,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>127</v>
       </c>
@@ -5590,7 +5616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>128</v>
       </c>
@@ -5601,7 +5627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>129</v>
       </c>
@@ -5612,7 +5638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>130</v>
       </c>
@@ -5623,7 +5649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -5634,7 +5660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>132</v>
       </c>
@@ -5645,7 +5671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -5656,7 +5682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -5667,7 +5693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>80</v>
       </c>
@@ -5678,7 +5704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>81</v>
       </c>
@@ -5689,7 +5715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>82</v>
       </c>
@@ -5700,7 +5726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>83</v>
       </c>
@@ -5711,7 +5737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>84</v>
       </c>
@@ -5722,7 +5748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>85</v>
       </c>
@@ -5733,7 +5759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>86</v>
       </c>
@@ -5744,7 +5770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>87</v>
       </c>
@@ -5755,7 +5781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>88</v>
       </c>
@@ -5766,7 +5792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -5777,7 +5803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -5788,7 +5814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>91</v>
       </c>
@@ -5799,7 +5825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -5810,7 +5836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>93</v>
       </c>
@@ -5821,7 +5847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>94</v>
       </c>
@@ -5832,7 +5858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>95</v>
       </c>
@@ -5843,7 +5869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>96</v>
       </c>
@@ -5854,7 +5880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>97</v>
       </c>
@@ -5865,7 +5891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>98</v>
       </c>
@@ -5876,7 +5902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>100</v>
       </c>
@@ -5887,7 +5913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>101</v>
       </c>
@@ -5898,7 +5924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>43</v>
       </c>
@@ -5909,7 +5935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>102</v>
       </c>
@@ -5920,7 +5946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>103</v>
       </c>
@@ -5931,7 +5957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>104</v>
       </c>
@@ -5942,7 +5968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>105</v>
       </c>
@@ -5953,7 +5979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>106</v>
       </c>
@@ -5964,7 +5990,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>107</v>
       </c>
@@ -5975,7 +6001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>108</v>
       </c>
@@ -5986,7 +6012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>110</v>
       </c>
@@ -5997,7 +6023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>111</v>
       </c>
@@ -6008,7 +6034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>112</v>
       </c>
@@ -6019,7 +6045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -6030,7 +6056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>116</v>
       </c>
@@ -6041,7 +6067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>117</v>
       </c>
@@ -6052,7 +6078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>118</v>
       </c>
@@ -6063,7 +6089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>119</v>
       </c>
@@ -6074,7 +6100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>121</v>
       </c>
@@ -6085,7 +6111,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>122</v>
       </c>
@@ -6096,7 +6122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>123</v>
       </c>
@@ -6107,7 +6133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>124</v>
       </c>
@@ -6118,7 +6144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>125</v>
       </c>
@@ -6129,7 +6155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>71</v>
       </c>
@@ -6140,7 +6166,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>126</v>
       </c>
@@ -6151,7 +6177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>127</v>
       </c>
@@ -6162,7 +6188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>128</v>
       </c>
@@ -6173,7 +6199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>129</v>
       </c>
@@ -6184,7 +6210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>130</v>
       </c>
@@ -6195,7 +6221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>131</v>
       </c>
@@ -6206,7 +6232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>132</v>
       </c>
@@ -6217,7 +6243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>79</v>
       </c>
@@ -6228,7 +6254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -6239,7 +6265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>80</v>
       </c>
@@ -6250,7 +6276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>81</v>
       </c>
@@ -6261,7 +6287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>82</v>
       </c>
@@ -6272,7 +6298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>83</v>
       </c>
@@ -6283,7 +6309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>84</v>
       </c>
@@ -6294,7 +6320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>85</v>
       </c>
@@ -6305,7 +6331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>86</v>
       </c>
@@ -6316,7 +6342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>87</v>
       </c>
@@ -6327,7 +6353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>88</v>
       </c>
@@ -6338,7 +6364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>89</v>
       </c>
@@ -6349,7 +6375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>90</v>
       </c>
@@ -6360,7 +6386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -6371,7 +6397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>92</v>
       </c>
@@ -6382,7 +6408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>93</v>
       </c>
@@ -6393,7 +6419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>94</v>
       </c>
@@ -6404,7 +6430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>96</v>
       </c>
@@ -6415,7 +6441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>97</v>
       </c>
@@ -6426,7 +6452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>98</v>
       </c>
@@ -6437,7 +6463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>100</v>
       </c>
@@ -6448,7 +6474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>101</v>
       </c>
@@ -6459,7 +6485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -6470,7 +6496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>102</v>
       </c>
@@ -6481,7 +6507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>103</v>
       </c>
@@ -6492,7 +6518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>104</v>
       </c>
@@ -6503,7 +6529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>105</v>
       </c>
@@ -6514,7 +6540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>106</v>
       </c>
@@ -6525,7 +6551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>107</v>
       </c>
@@ -6536,7 +6562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>108</v>
       </c>
@@ -6547,7 +6573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>110</v>
       </c>
@@ -6558,7 +6584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>135</v>
       </c>
@@ -6569,7 +6595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>112</v>
       </c>
@@ -6580,7 +6606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>116</v>
       </c>
@@ -6591,7 +6617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>117</v>
       </c>
@@ -6602,7 +6628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>118</v>
       </c>
@@ -6613,7 +6639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>119</v>
       </c>
@@ -6624,7 +6650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>121</v>
       </c>
@@ -6635,7 +6661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>122</v>
       </c>
@@ -6646,7 +6672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>123</v>
       </c>
@@ -6657,7 +6683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>124</v>
       </c>
@@ -6668,7 +6694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>125</v>
       </c>
@@ -6679,7 +6705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>71</v>
       </c>
@@ -6690,7 +6716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>126</v>
       </c>
@@ -6701,7 +6727,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>127</v>
       </c>
@@ -6712,7 +6738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>128</v>
       </c>
@@ -6723,7 +6749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>129</v>
       </c>
@@ -6734,7 +6760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>130</v>
       </c>
@@ -6745,7 +6771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>131</v>
       </c>
@@ -6756,7 +6782,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>132</v>
       </c>
@@ -6767,7 +6793,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>79</v>
       </c>
@@ -6778,7 +6804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -6789,7 +6815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>80</v>
       </c>
@@ -6800,7 +6826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>81</v>
       </c>
@@ -6811,7 +6837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>82</v>
       </c>
@@ -6822,7 +6848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>83</v>
       </c>
@@ -6833,7 +6859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>136</v>
       </c>
@@ -6844,7 +6870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>85</v>
       </c>
@@ -6855,7 +6881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>86</v>
       </c>
@@ -6866,7 +6892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>87</v>
       </c>
@@ -6877,7 +6903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>137</v>
       </c>
@@ -6888,7 +6914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>89</v>
       </c>
@@ -6899,7 +6925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>93</v>
       </c>
@@ -6910,7 +6936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -6921,7 +6947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>91</v>
       </c>
@@ -6932,7 +6958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>92</v>
       </c>
@@ -6943,7 +6969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>96</v>
       </c>
@@ -6954,7 +6980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>94</v>
       </c>
@@ -6965,7 +6991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>97</v>
       </c>
@@ -6976,7 +7002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>98</v>
       </c>
@@ -6987,7 +7013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>100</v>
       </c>
@@ -6998,7 +7024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>101</v>
       </c>
@@ -7009,7 +7035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>43</v>
       </c>
@@ -7020,7 +7046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>102</v>
       </c>
@@ -7031,7 +7057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>103</v>
       </c>
@@ -7042,7 +7068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>104</v>
       </c>
@@ -7053,7 +7079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>105</v>
       </c>
@@ -7064,7 +7090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>138</v>
       </c>
@@ -7075,7 +7101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>107</v>
       </c>
@@ -7086,7 +7112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>108</v>
       </c>
@@ -7097,7 +7123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>110</v>
       </c>
@@ -7108,7 +7134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>112</v>
       </c>
@@ -7119,7 +7145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>135</v>
       </c>
@@ -7130,7 +7156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>116</v>
       </c>
@@ -7141,7 +7167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>117</v>
       </c>
@@ -7152,7 +7178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>139</v>
       </c>
@@ -7163,7 +7189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>119</v>
       </c>
@@ -7174,7 +7200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>140</v>
       </c>
@@ -7185,7 +7211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>121</v>
       </c>
@@ -7196,7 +7222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>124</v>
       </c>
@@ -7207,7 +7233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>123</v>
       </c>
@@ -7218,7 +7244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>125</v>
       </c>
@@ -7229,7 +7255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>71</v>
       </c>
@@ -7240,7 +7266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>126</v>
       </c>
@@ -7251,7 +7277,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>127</v>
       </c>
@@ -7262,7 +7288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>128</v>
       </c>
@@ -7273,7 +7299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>141</v>
       </c>
@@ -7284,7 +7310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>130</v>
       </c>
@@ -7295,7 +7321,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>131</v>
       </c>
@@ -7306,7 +7332,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>132</v>
       </c>
@@ -7317,7 +7343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>142</v>
       </c>
@@ -7328,7 +7354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -7339,7 +7365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>80</v>
       </c>
@@ -7350,7 +7376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>81</v>
       </c>
@@ -7361,7 +7387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>82</v>
       </c>
@@ -7372,7 +7398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>83</v>
       </c>
@@ -7383,7 +7409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>84</v>
       </c>
@@ -7394,7 +7420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>85</v>
       </c>
@@ -7405,7 +7431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>86</v>
       </c>
@@ -7416,7 +7442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>87</v>
       </c>
@@ -7427,7 +7453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>89</v>
       </c>
@@ -7438,7 +7464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>93</v>
       </c>
@@ -7449,7 +7475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>90</v>
       </c>
@@ -7460,7 +7486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>91</v>
       </c>
@@ -7471,7 +7497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>92</v>
       </c>
@@ -7482,7 +7508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>96</v>
       </c>
@@ -7493,7 +7519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>94</v>
       </c>
@@ -7504,7 +7530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>97</v>
       </c>
@@ -7515,7 +7541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>98</v>
       </c>
@@ -7526,7 +7552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>100</v>
       </c>
@@ -7537,7 +7563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>101</v>
       </c>
@@ -7548,7 +7574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>43</v>
       </c>
@@ -7559,7 +7585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>102</v>
       </c>
@@ -7570,7 +7596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>103</v>
       </c>
@@ -7581,7 +7607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>104</v>
       </c>
@@ -7592,7 +7618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>105</v>
       </c>
@@ -7603,7 +7629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>138</v>
       </c>
@@ -7614,7 +7640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>107</v>
       </c>
@@ -7625,7 +7651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>143</v>
       </c>
@@ -7636,7 +7662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>110</v>
       </c>
@@ -7647,7 +7673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>112</v>
       </c>
@@ -7658,7 +7684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>116</v>
       </c>
@@ -7669,7 +7695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>117</v>
       </c>
@@ -7680,7 +7706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>118</v>
       </c>
@@ -7691,7 +7717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>144</v>
       </c>
@@ -7702,7 +7728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>140</v>
       </c>
@@ -7713,7 +7739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>121</v>
       </c>
@@ -7724,7 +7750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>124</v>
       </c>
@@ -7735,7 +7761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>123</v>
       </c>
@@ -7746,7 +7772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>125</v>
       </c>
@@ -7757,7 +7783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>71</v>
       </c>
@@ -7768,7 +7794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>145</v>
       </c>
@@ -7779,7 +7805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>146</v>
       </c>
@@ -7790,7 +7816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>147</v>
       </c>
@@ -7801,7 +7827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>148</v>
       </c>
@@ -7812,7 +7838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>126</v>
       </c>
@@ -7823,7 +7849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>131</v>
       </c>
@@ -7834,7 +7860,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>132</v>
       </c>
@@ -7845,7 +7871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>142</v>
       </c>
@@ -7856,7 +7882,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -7867,7 +7893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>80</v>
       </c>
@@ -7878,7 +7904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>81</v>
       </c>
@@ -7889,7 +7915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>82</v>
       </c>
@@ -7900,7 +7926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>83</v>
       </c>
@@ -7911,7 +7937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>84</v>
       </c>
@@ -7922,7 +7948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>85</v>
       </c>
@@ -7933,7 +7959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>86</v>
       </c>
@@ -7944,7 +7970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>87</v>
       </c>
@@ -7955,7 +7981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>88</v>
       </c>
@@ -7966,7 +7992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>89</v>
       </c>
@@ -7977,7 +8003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>93</v>
       </c>
@@ -7988,7 +8014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>90</v>
       </c>
@@ -7999,7 +8025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>91</v>
       </c>
@@ -8010,7 +8036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>92</v>
       </c>
@@ -8021,7 +8047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>96</v>
       </c>
@@ -8032,7 +8058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>94</v>
       </c>
@@ -8043,7 +8069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>97</v>
       </c>
@@ -8054,7 +8080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>98</v>
       </c>
@@ -8065,7 +8091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>100</v>
       </c>
@@ -8076,7 +8102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>101</v>
       </c>
@@ -8087,7 +8113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>43</v>
       </c>
@@ -8098,7 +8124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>102</v>
       </c>
@@ -8109,7 +8135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>103</v>
       </c>
@@ -8120,7 +8146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>104</v>
       </c>
@@ -8131,7 +8157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>105</v>
       </c>
@@ -8142,7 +8168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>107</v>
       </c>
@@ -8153,7 +8179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>143</v>
       </c>
@@ -8164,7 +8190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>110</v>
       </c>
@@ -8175,7 +8201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>112</v>
       </c>
@@ -8186,7 +8212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>113</v>
       </c>
@@ -8197,7 +8223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>116</v>
       </c>
@@ -8208,7 +8234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>118</v>
       </c>
@@ -8219,7 +8245,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>117</v>
       </c>
@@ -8230,7 +8256,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>140</v>
       </c>
@@ -8241,7 +8267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>124</v>
       </c>
@@ -8252,7 +8278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>121</v>
       </c>
@@ -8263,7 +8289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>144</v>
       </c>
@@ -8274,7 +8300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>123</v>
       </c>
@@ -8285,7 +8311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>125</v>
       </c>
@@ -8296,7 +8322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>71</v>
       </c>
@@ -8307,7 +8333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>145</v>
       </c>
@@ -8318,7 +8344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>146</v>
       </c>
@@ -8329,7 +8355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>147</v>
       </c>
@@ -8340,7 +8366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>148</v>
       </c>
@@ -8351,7 +8377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>126</v>
       </c>
@@ -8362,7 +8388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>131</v>
       </c>
@@ -8373,7 +8399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>132</v>
       </c>
@@ -8384,7 +8410,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>142</v>
       </c>
@@ -8395,7 +8421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>20</v>
       </c>
@@ -8406,7 +8432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>80</v>
       </c>
@@ -8417,7 +8443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>81</v>
       </c>
@@ -8428,7 +8454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>82</v>
       </c>
@@ -8439,7 +8465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>83</v>
       </c>
@@ -8450,7 +8476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>136</v>
       </c>
@@ -8461,7 +8487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>85</v>
       </c>
@@ -8472,7 +8498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>86</v>
       </c>
@@ -8483,7 +8509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>87</v>
       </c>
@@ -8494,7 +8520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>88</v>
       </c>
@@ -8505,7 +8531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>89</v>
       </c>
@@ -8516,7 +8542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>93</v>
       </c>
@@ -8527,7 +8553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>90</v>
       </c>
@@ -8538,7 +8564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>91</v>
       </c>
@@ -8549,7 +8575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>92</v>
       </c>
@@ -8560,7 +8586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>96</v>
       </c>
@@ -8571,7 +8597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>94</v>
       </c>
@@ -8582,7 +8608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -8593,7 +8619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>98</v>
       </c>
@@ -8604,7 +8630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>100</v>
       </c>
@@ -8615,7 +8641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>101</v>
       </c>
@@ -8626,7 +8652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>43</v>
       </c>
@@ -8637,7 +8663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>102</v>
       </c>
@@ -8648,7 +8674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>103</v>
       </c>
@@ -8659,7 +8685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>104</v>
       </c>
@@ -8670,7 +8696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>105</v>
       </c>
@@ -8681,7 +8707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>143</v>
       </c>
@@ -8692,7 +8718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>110</v>
       </c>
@@ -8703,7 +8729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>112</v>
       </c>
@@ -8714,7 +8740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>116</v>
       </c>
@@ -8725,7 +8751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>118</v>
       </c>
@@ -8736,7 +8762,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>117</v>
       </c>
@@ -8747,7 +8773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>140</v>
       </c>
@@ -8758,7 +8784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>124</v>
       </c>
@@ -8769,7 +8795,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>121</v>
       </c>
@@ -8780,7 +8806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>144</v>
       </c>
@@ -8791,7 +8817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>123</v>
       </c>
@@ -8802,7 +8828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>125</v>
       </c>
@@ -8813,7 +8839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>71</v>
       </c>
@@ -8824,7 +8850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>145</v>
       </c>
@@ -8835,7 +8861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>146</v>
       </c>
@@ -8846,7 +8872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>147</v>
       </c>
@@ -8857,7 +8883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>148</v>
       </c>
@@ -8868,7 +8894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>126</v>
       </c>
@@ -8879,7 +8905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>131</v>
       </c>
@@ -8890,7 +8916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>132</v>
       </c>
@@ -8901,7 +8927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>142</v>
       </c>
@@ -8912,7 +8938,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>20</v>
       </c>
@@ -8923,7 +8949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>80</v>
       </c>
@@ -8934,7 +8960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>81</v>
       </c>
@@ -8945,7 +8971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>82</v>
       </c>
@@ -8956,7 +8982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>83</v>
       </c>
@@ -8967,7 +8993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>84</v>
       </c>
@@ -8978,7 +9004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>85</v>
       </c>
@@ -8989,7 +9015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>86</v>
       </c>
@@ -9000,7 +9026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>87</v>
       </c>
@@ -9011,7 +9037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>89</v>
       </c>
@@ -9022,7 +9048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>90</v>
       </c>
@@ -9033,7 +9059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>91</v>
       </c>
@@ -9044,7 +9070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>92</v>
       </c>
@@ -9055,7 +9081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>93</v>
       </c>
@@ -9066,7 +9092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>94</v>
       </c>
@@ -9077,7 +9103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>95</v>
       </c>
@@ -9088,7 +9114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>96</v>
       </c>
@@ -9099,7 +9125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>97</v>
       </c>
@@ -9110,7 +9136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>98</v>
       </c>
@@ -9121,7 +9147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>99</v>
       </c>
@@ -9132,7 +9158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>100</v>
       </c>
@@ -9143,7 +9169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>101</v>
       </c>
@@ -9154,7 +9180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>43</v>
       </c>
@@ -9165,7 +9191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>102</v>
       </c>
@@ -9176,7 +9202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>103</v>
       </c>
@@ -9187,7 +9213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>104</v>
       </c>
@@ -9198,7 +9224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>105</v>
       </c>
@@ -9209,7 +9235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>106</v>
       </c>
@@ -9220,7 +9246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>107</v>
       </c>
@@ -9231,7 +9257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>108</v>
       </c>
@@ -9242,7 +9268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>109</v>
       </c>
@@ -9253,7 +9279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>110</v>
       </c>
@@ -9264,7 +9290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>111</v>
       </c>
@@ -9275,7 +9301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>112</v>
       </c>
@@ -9286,7 +9312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>116</v>
       </c>
@@ -9297,7 +9323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>117</v>
       </c>
@@ -9308,7 +9334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>118</v>
       </c>
@@ -9319,7 +9345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>120</v>
       </c>
@@ -9330,7 +9356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>119</v>
       </c>
@@ -9341,7 +9367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>121</v>
       </c>
@@ -9352,7 +9378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>122</v>
       </c>
@@ -9363,7 +9389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>123</v>
       </c>
@@ -9374,7 +9400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>124</v>
       </c>
@@ -9385,7 +9411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>125</v>
       </c>
@@ -9396,7 +9422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>71</v>
       </c>
@@ -9407,7 +9433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>126</v>
       </c>
@@ -9418,7 +9444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>127</v>
       </c>
@@ -9429,7 +9455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>128</v>
       </c>
@@ -9440,7 +9466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>129</v>
       </c>
@@ -9451,7 +9477,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>130</v>
       </c>
@@ -9462,7 +9488,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>131</v>
       </c>
@@ -9473,7 +9499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>132</v>
       </c>
@@ -9484,7 +9510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>79</v>
       </c>
@@ -9501,14 +9527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -9516,7 +9542,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -9524,7 +9550,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -9532,7 +9558,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -9540,7 +9566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -9548,7 +9574,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -9556,7 +9582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -9564,7 +9590,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -9572,7 +9598,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -9580,7 +9606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -9588,7 +9614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -9596,7 +9622,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -9604,7 +9630,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -9612,7 +9638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -9620,7 +9646,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -9628,7 +9654,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -9636,7 +9662,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -9644,7 +9670,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -9652,7 +9678,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -9660,7 +9686,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -9668,7 +9694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -9676,7 +9702,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -9684,7 +9710,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -9692,7 +9718,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -9700,7 +9726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -9708,7 +9734,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -9716,7 +9742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -9724,7 +9750,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -9732,7 +9758,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -9740,7 +9766,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -9748,7 +9774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -9756,7 +9782,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -9764,7 +9790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -9772,7 +9798,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>154</v>
       </c>
@@ -9780,7 +9806,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -9788,7 +9814,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -9796,7 +9822,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>154</v>
       </c>
@@ -9804,7 +9830,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -9812,7 +9838,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -9820,7 +9846,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -9828,7 +9854,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -9836,7 +9862,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -9844,7 +9870,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -9852,7 +9878,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -9860,7 +9886,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -9868,7 +9894,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -9876,7 +9902,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
